--- a/class/bubble_sort_vs_selection_sort_ timing_analysis.xlsx
+++ b/class/bubble_sort_vs_selection_sort_ timing_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c271898d362ea1b/Documents/CSC_17C/midterm/Midterm_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c271898d362ea1b/Documents/CSC_17C/class/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="138" documentId="8_{944744B9-A9E7-483B-991A-50D246AF52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23F1407-DD0E-4F93-819B-5F3FF92EA5A5}"/>
@@ -4468,10 +4468,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4792,7 +4788,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
